--- a/DataDriven/src/test/resources/excel/TestData.xlsx
+++ b/DataDriven/src/test/resources/excel/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="14835" windowHeight="2115"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="11340" windowHeight="2115"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>firstname</t>
   </si>
@@ -35,15 +34,6 @@
   </si>
   <si>
     <t>abs123</t>
-  </si>
-  <si>
-    <t>Donna</t>
-  </si>
-  <si>
-    <t>Sobrino</t>
-  </si>
-  <si>
-    <t>gma123</t>
   </si>
 </sst>
 </file>
@@ -382,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,17 +400,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
